--- a/MainTop/25.09.2024/имена.xlsx
+++ b/MainTop/25.09.2024/имена.xlsx
@@ -374,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3188,6 +3188,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I77" s="0" t="n">
+        <f aca="false">SUM(I2:I76)</f>
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
